--- a/ExcelでできることはPandasで！/data/VLOOKUP-1.xlsx
+++ b/ExcelでできることはPandasで！/data/VLOOKUP-1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>名前</t>
     <rPh sb="0" eb="2">
@@ -77,25 +77,12 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
-  <si>
-    <t>追試対象者</t>
-    <rPh sb="0" eb="2">
-      <t>ツイシ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>タイショウシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>二郎</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,14 +97,6 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF666666"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="2">
@@ -142,11 +121,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -443,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A6" sqref="A6:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -504,20 +480,6 @@
       </c>
       <c r="C5" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1">
-        <f>VLOOKUP("二郎",A2:C5,2,FALSE)</f>
-        <v>79</v>
       </c>
     </row>
   </sheetData>
